--- a/xlsxmaps/level_0031.xlsx
+++ b/xlsxmaps/level_0031.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\三消\编辑关卡\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4468A97E-1F77-4900-A232-60C3127A8BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3219422-42B9-437B-83BC-4C12C86DB9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2077,19 +2077,19 @@
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1">
       <c r="A2" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="B2" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="C2" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="D2" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="E2" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
@@ -2181,19 +2181,19 @@
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="B6" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="C6" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="D6" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="E6" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
@@ -2362,16 +2362,16 @@
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1">
       <c r="A3" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="B3" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="C3" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="D3" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -2466,16 +2466,16 @@
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="B7" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="C7" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="D7" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -2621,19 +2621,19 @@
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1">
       <c r="A3" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="B3" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="C3" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="D3" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="E3" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -2816,7 +2816,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -2906,16 +2906,16 @@
     </row>
     <row r="4" spans="1:8" ht="20.25" customHeight="1">
       <c r="A4" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="B4" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="C4" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="D4" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>

--- a/xlsxmaps/level_0031.xlsx
+++ b/xlsxmaps/level_0031.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\三消\编辑关卡\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3219422-42B9-437B-83BC-4C12C86DB9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D479466-3DD0-43CA-A7A1-3A59F6E7C463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="层" sheetId="25" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="层 (5)" sheetId="58" r:id="rId5"/>
     <sheet name="层 (6)" sheetId="59" r:id="rId6"/>
     <sheet name="层 (7)" sheetId="62" r:id="rId7"/>
+    <sheet name="层 (8)" sheetId="63" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1261,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98328020-202E-4617-B88F-D8CF9F0B37E4}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1436,7 +1437,7 @@
         <v>11000000</v>
       </c>
       <c r="C7" s="2">
-        <v>11000000</v>
+        <v>1200013</v>
       </c>
       <c r="D7" s="2">
         <v>11000000</v>
@@ -1521,7 +1522,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1715,7 +1716,7 @@
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="2">
-        <v>11000000</v>
+        <v>1200013</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -1724,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="2">
-        <v>11000000</v>
+        <v>1200013</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -2039,7 +2040,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:H9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -2077,19 +2078,19 @@
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1">
       <c r="A2" s="2">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
@@ -2181,19 +2182,19 @@
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="2">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="B6" s="2">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
@@ -2336,19 +2337,19 @@
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1">
       <c r="A2" s="2">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="B2" s="2">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="D2" s="2">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
@@ -2362,16 +2363,16 @@
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1">
       <c r="A3" s="2">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -2440,19 +2441,19 @@
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="2">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="C6" s="2">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="E6" s="2">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
@@ -2466,16 +2467,16 @@
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="2">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="B7" s="2">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -2633,7 +2634,7 @@
         <v>21000000</v>
       </c>
       <c r="E3" s="2">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -2725,16 +2726,16 @@
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="2">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="B7" s="2">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="D7" s="2">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -2815,8 +2816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE281B4-3F2C-472E-BC08-17008519798E}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -2880,6 +2881,265 @@
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1">
       <c r="A3" s="2">
+        <v>21000000</v>
+      </c>
+      <c r="B3" s="2">
+        <v>21000000</v>
+      </c>
+      <c r="C3" s="2">
+        <v>21000000</v>
+      </c>
+      <c r="D3" s="2">
+        <v>21000000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>21000000</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A8" s="2">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A9" s="2">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D780F1-7A77-4A8F-9222-5BEE802F8CEB}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <cols>
+    <col min="1" max="4" width="16.28515625" style="1"/>
+    <col min="5" max="8" width="16.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A1" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A3" s="2">
         <v>0</v>
       </c>
       <c r="B3" s="2">

--- a/xlsxmaps/level_0031.xlsx
+++ b/xlsxmaps/level_0031.xlsx
@@ -5,25 +5,37 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\三消\编辑关卡\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\三消\编辑关卡\28-37\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D479466-3DD0-43CA-A7A1-3A59F6E7C463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB413C27-4541-42D2-82AA-5D583E3BBD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="层" sheetId="25" r:id="rId1"/>
-    <sheet name="层 (2)" sheetId="55" r:id="rId2"/>
-    <sheet name="层 (3)" sheetId="56" r:id="rId3"/>
-    <sheet name="层 (4)" sheetId="57" r:id="rId4"/>
-    <sheet name="层 (5)" sheetId="58" r:id="rId5"/>
-    <sheet name="层 (6)" sheetId="59" r:id="rId6"/>
-    <sheet name="层 (7)" sheetId="62" r:id="rId7"/>
-    <sheet name="层 (8)" sheetId="63" r:id="rId8"/>
+    <sheet name="base" sheetId="64" r:id="rId1"/>
+    <sheet name="层" sheetId="25" r:id="rId2"/>
+    <sheet name="层 (2)" sheetId="55" r:id="rId3"/>
+    <sheet name="层 (3)" sheetId="56" r:id="rId4"/>
+    <sheet name="层 (4)" sheetId="57" r:id="rId5"/>
+    <sheet name="层 (5)" sheetId="58" r:id="rId6"/>
+    <sheet name="层 (6)" sheetId="59" r:id="rId7"/>
+    <sheet name="层 (7)" sheetId="62" r:id="rId8"/>
+    <sheet name="层 (8)" sheetId="63" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>layerlevel</t>
+  </si>
+  <si>
+    <t>1,1,1,1,0,0,0,0</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -90,7 +102,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -98,6 +110,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1259,11 +1280,111 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73ED70F-2E0E-41F2-AEBB-89EB83A08A3F}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="5" customWidth="1"/>
+    <col min="3" max="6" width="8.85546875" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98328020-202E-4617-B88F-D8CF9F0B37E4}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1437,7 +1558,7 @@
         <v>11000000</v>
       </c>
       <c r="C7" s="2">
-        <v>1200013</v>
+        <v>12000013</v>
       </c>
       <c r="D7" s="2">
         <v>11000000</v>
@@ -1517,12 +1638,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3696DB0-7A8C-497C-90FD-86688DA1382F}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1716,7 +1837,7 @@
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="2">
-        <v>1200013</v>
+        <v>12000013</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -1725,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="2">
-        <v>1200013</v>
+        <v>12000013</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -1776,7 +1897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C01DCB00-9CDF-4E08-B131-0C63335D0563}">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -2035,7 +2156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18014C58-377C-4889-9C4A-EFB1DD114C69}">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -2294,7 +2415,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F2C729-1956-4E21-AAEF-F65168CE7A13}">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -2553,7 +2674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4ED1227-7749-4A5B-867C-368FE4E864C0}">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -2812,7 +2933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE281B4-3F2C-472E-BC08-17008519798E}">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -3071,11 +3192,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D780F1-7A77-4A8F-9222-5BEE802F8CEB}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
